--- a/ConceptMap-R5-Organization-elements-for-R4-Organization.xlsx
+++ b/ConceptMap-R5-Organization-elements-for-R4-Organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:33.7963798-06:00</t>
+    <t>2026-02-09T22:05:44.1003655-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -201,18 +201,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/Organization#Organization.alias</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.alias</t>
-  </si>
-  <si>
     <t>Organization.description</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description</t>
-  </si>
-  <si>
     <t>Organization.contact</t>
   </si>
   <si>
@@ -240,49 +234,31 @@
     <t>http://hl7.org/fhir/StructureDefinition/Organization#Organization.endpoint</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.endpoint</t>
-  </si>
-  <si>
     <t>Organization.qualification</t>
   </si>
   <si>
     <t>qualification</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification</t>
-  </si>
-  <si>
     <t>Organization.qualification.identifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification:identifier</t>
-  </si>
-  <si>
     <t>Organization.qualification.code</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification:code</t>
-  </si>
-  <si>
     <t>Organization.qualification.period</t>
   </si>
   <si>
     <t>period</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification:period</t>
-  </si>
-  <si>
     <t>Organization.qualification.issuer</t>
   </si>
   <si>
     <t>issuer</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification:issuer</t>
   </si>
 </sst>
 </file>
@@ -539,7 +515,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -722,79 +698,79 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -807,61 +783,35 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Organization-elements-for-R4-Organization.xlsx
+++ b/ConceptMap-R5-Organization-elements-for-R4-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.1003655-06:00</t>
+    <t>2026-02-17T14:42:27.4435839-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
